--- a/VerveStacks_BRA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
+++ b/VerveStacks_BRA/SuppXLS/scen_tsparameters_s3p3v3_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2398B081-A1D4-4991-89F9-AAB26A13CE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02FBC66-98E4-48DD-94D9-E5E0F080B246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1581,13 +1581,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S2b0301h17,S2c0302h16,S2d0303h14,S2d0303h16,S3f1013h09,S3h1128h13,S3i1216h09,S3i1216h12,S1aH2,S2aH3,S2b0301h14,S2b0301h16,S2d0303h11,S3aH6,S3e1004h14,S3f1013h13,S3i1216h14,S2b0301h12,S2d0303h08,S3e1004h07,S3e1004h10,S3e1004h13,S3g1014h12,S3g1014h18,S3h1128h16,S3i1216h10,S3j1218h08,S3j1218h18,S2c0302h18,S2d0303h17,S3aH2,S3f1013h07,S3f1013h17,S3g1014h13,S3g1014h14,S3g1014h15,S3i1216h11,S1aH4,S2aH2,S3e1004h09,S2c0302h08,S2c0302h09,S3aH4,S3e1004h15,S3e1004h16,S2b0301h10,S2b0301h15,S2d0303h07,S2d0303h15,S3e1004h08,S3f1013h16,S3g1014h08,S3g1014h16,S3h1128h07,S3h1128h10,S3h1128h11,S3j1218h16,S1aH5,S2aH4,S2aH5,S2b0301h07,S2c0302h15,S3f1013h14,S3h1128h15,S3i1216h07,S3i1216h13,S3j1218h10,S3j1218h17,S2c0302h07,S2c0302h11,S2d0303h13,S2d0303h18,S3e1004h17,S3f1013h11,S3g1014h07,S3g1014h11,S3h1128h12,S3i1216h16,S3j1218h14,S2b0301h08,S2b0301h11,S2b0301h13,S3aH3,S3f1013h08,S3j1218h11,S2d0303h10,S2d0303h12,S3e1004h12,S3j1218h12,S3j1218h13,S2c0302h10,S2c0302h12,S2c0302h17,S3e1004h18,S3f1013h15,S3h1128h14,S3i1216h15,S3i1216h17,S3i1216h18,S1aH6,S2c0302h13,S3f1013h10,S3f1013h18,S3g1014h09,S3j1218h09,S3j1218h15,S1aH3,S2c0302h14,S2d0303h09,S3h1128h09,S3i1216h08,S2aH6,S2b0301h09,S3aH5,S3f1013h12,S3g1014h17,S3h1128h17,S3j1218h07,S2b0301h18,S3e1004h11,S3g1014h10,S3h1128h08,S3h1128h18</t>
+    <t>S2c0302h08,S2c0302h09,S3aH4,S3e1004h15,S3e1004h16,S2b0301h17,S2c0302h16,S2d0303h14,S2d0303h16,S3f1013h09,S3h1128h13,S3i1216h09,S3i1216h12,S1aH4,S2aH2,S3e1004h09,S2c0302h18,S2d0303h17,S3aH2,S3f1013h07,S3f1013h17,S3g1014h13,S3g1014h14,S3g1014h15,S3i1216h11,S1aH6,S2c0302h13,S3f1013h10,S3f1013h18,S3g1014h09,S3j1218h09,S3j1218h15,S2c0302h10,S2c0302h12,S2c0302h17,S3e1004h18,S3f1013h15,S3h1128h14,S3i1216h15,S3i1216h17,S3i1216h18,S1aH3,S2c0302h14,S2d0303h09,S3h1128h09,S3i1216h08,S2b0301h08,S2b0301h11,S2b0301h13,S3aH3,S3f1013h08,S3j1218h11,S1aH5,S2aH4,S2aH5,S2b0301h07,S2c0302h15,S3f1013h14,S3h1128h15,S3i1216h07,S3i1216h13,S3j1218h10,S3j1218h17,S2c0302h07,S2c0302h11,S2d0303h13,S2d0303h18,S3e1004h17,S3f1013h11,S3g1014h07,S3g1014h11,S3h1128h12,S3i1216h16,S3j1218h14,S2d0303h10,S2d0303h12,S3e1004h12,S3j1218h12,S3j1218h13,S1aH2,S2aH3,S2b0301h14,S2b0301h16,S2d0303h11,S3aH6,S3e1004h14,S3f1013h13,S3i1216h14,S2b0301h18,S3e1004h11,S3g1014h10,S3h1128h08,S3h1128h18,S2aH6,S2b0301h09,S3aH5,S3f1013h12,S3g1014h17,S3h1128h17,S3j1218h07,S2b0301h10,S2b0301h15,S2d0303h07,S2d0303h15,S3e1004h08,S3f1013h16,S3g1014h08,S3g1014h16,S3h1128h07,S3h1128h10,S3h1128h11,S3j1218h16,S2b0301h12,S2d0303h08,S3e1004h07,S3e1004h10,S3e1004h13,S3g1014h12,S3g1014h18,S3h1128h16,S3i1216h10,S3j1218h08,S3j1218h18</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2c0302h06,S2c0302h24,S3e1004h06,S3e1004h23,S3h1128h20,S3h1128h24,S2b0301h21,S2c0302h01,S2d0303h02,S2d0303h20,S3e1004h24,S3f1013h20,S3i1216h04,S2b0301h06,S2b0301h22,S2b0301h23,S2c0302h02,S2d0303h21,S3e1004h02,S3f1013h02,S3g1014h20,S3h1128h21,S3i1216h01,S2b0301h05,S2b0301h19,S2b0301h24,S2d0303h22,S3aH8,S3e1004h05,S3f1013h04,S3g1014h02,S3g1014h04,S3g1014h05,S3h1128h19,S3i1216h22,S3j1218h06,S3j1218h21,S2b0301h03,S2d0303h06,S3e1004h22,S3f1013h22,S3i1216h19,S2b0301h02,S2d0303h05,S2d0303h23,S3f1013h06,S3f1013h19,S3h1128h01,S2aH8,S3g1014h19,S3i1216h06,S3j1218h01,S2c0302h20,S3f1013h05,S3g1014h01,S3g1014h06,S3h1128h06,S3h1128h23,S3j1218h19,S3j1218h24,S1aH1,S2aH7,S3e1004h04,S3f1013h01,S3i1216h03,S3j1218h03,S2c0302h22,S2d0303h04,S2d0303h19,S3e1004h01,S3f1013h03,S3h1128h22,S3i1216h20,S3i1216h24,S3j1218h23,S2c0302h05,S2c0302h21,S2d0303h24,S3aH1,S3e1004h20,S3f1013h21,S3h1128h04,S3h1128h05,S3i1216h05,S3i1216h21,S3j1218h02,S3j1218h22,S2aH1,S3aH7,S3e1004h03,S3f1013h23,S3h1128h03,S3i1216h02,S2b0301h04,S2d0303h03,S3g1014h21,S1aH7,S2c0302h04,S2d0303h01,S3g1014h03,S3g1014h22,S3h1128h02,S3i1216h23,S3j1218h04,S1aH8,S2c0302h19,S2c0302h23,S3f1013h24,S3g1014h23,S3g1014h24,S3j1218h05,S2b0301h01,S2b0301h20,S2c0302h03,S3e1004h19,S3e1004h21,S3j1218h20</t>
+    <t>S2b0301h02,S2d0303h05,S2d0303h23,S3f1013h06,S3f1013h19,S3h1128h01,S2c0302h06,S2c0302h24,S3e1004h06,S3e1004h23,S3h1128h20,S3h1128h24,S2b0301h03,S2d0303h06,S3e1004h22,S3f1013h22,S3i1216h19,S2b0301h05,S2b0301h19,S2b0301h24,S2d0303h22,S3aH8,S3e1004h05,S3f1013h04,S3g1014h02,S3g1014h04,S3g1014h05,S3h1128h19,S3i1216h22,S3j1218h06,S3j1218h21,S2b0301h04,S2d0303h03,S3g1014h21,S2aH1,S3aH7,S3e1004h03,S3f1013h23,S3h1128h03,S3i1216h02,S1aH7,S2c0302h04,S2d0303h01,S3g1014h03,S3g1014h22,S3h1128h02,S3i1216h23,S3j1218h04,S2c0302h22,S2d0303h04,S2d0303h19,S3e1004h01,S3f1013h03,S3h1128h22,S3i1216h20,S3i1216h24,S3j1218h23,S2c0302h20,S3f1013h05,S3g1014h01,S3g1014h06,S3h1128h06,S3h1128h23,S3j1218h19,S3j1218h24,S1aH1,S2aH7,S3e1004h04,S3f1013h01,S3i1216h03,S3j1218h03,S2c0302h05,S2c0302h21,S2d0303h24,S3aH1,S3e1004h20,S3f1013h21,S3h1128h04,S3h1128h05,S3i1216h05,S3i1216h21,S3j1218h02,S3j1218h22,S2b0301h21,S2c0302h01,S2d0303h02,S2d0303h20,S3e1004h24,S3f1013h20,S3i1216h04,S2b0301h01,S2b0301h20,S2c0302h03,S3e1004h19,S3e1004h21,S3j1218h20,S1aH8,S2c0302h19,S2c0302h23,S3f1013h24,S3g1014h23,S3g1014h24,S3j1218h05,S2aH8,S3g1014h19,S3i1216h06,S3j1218h01,S2b0301h06,S2b0301h22,S2b0301h23,S2c0302h02,S2d0303h21,S3e1004h02,S3f1013h02,S3g1014h20,S3h1128h21,S3i1216h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2c0302h06,S2c0302h24,S3e1004h06,S3e1004h23,S3h1128h20,S3h1128h24,S2b0301h21,S2c0302h01,S2d0303h02,S2d0303h20,S3e1004h24,S3f1013h20,S3i1216h04,S2b0301h06,S2b0301h22,S2b0301h23,S2c0302h02,S2d0303h21,S3e1004h02,S3f1013h02,S3g1014h20,S3h1128h21,S3i1216h01,S2b0301h05,S2b0301h19,S2b0301h24,S2d0303h22,S3aH8,S3e1004h05,S3f1013h04,S3g1014h02,S3g1014h04,S3g1014h05,S3h1128h19,S3i1216h22,S3j1218h06,S3j1218h21,S2b0301h03,S2d0303h06,S3e1004h22,S3f1013h22,S3i1216h19,S2b0301h02,S2d0303h05,S2d0303h23,S3f1013h06,S3f1013h19,S3h1128h01,S2aH8,S3g1014h19,S3i1216h06,S3j1218h01,S2c0302h20,S3f1013h05,S3g1014h01,S3g1014h06,S3h1128h06,S3h1128h23,S3j1218h19,S3j1218h24,S1aH1,S2aH7,S3e1004h04,S3f1013h01,S3i1216h03,S3j1218h03,S2c0302h22,S2d0303h04,S2d0303h19,S3e1004h01,S3f1013h03,S3h1128h22,S3i1216h20,S3i1216h24,S3j1218h23,S2c0302h05,S2c0302h21,S2d0303h24,S3aH1,S3e1004h20,S3f1013h21,S3h1128h04,S3h1128h05,S3i1216h05,S3i1216h21,S3j1218h02,S3j1218h22,S2aH1,S3aH7,S3e1004h03,S3f1013h23,S3h1128h03,S3i1216h02,S2b0301h04,S2d0303h03,S3g1014h21,S1aH7,S2c0302h04,S2d0303h01,S3g1014h03,S3g1014h22,S3h1128h02,S3i1216h23,S3j1218h04,S1aH8,S2c0302h19,S2c0302h23,S3f1013h24,S3g1014h23,S3g1014h24,S3j1218h05,S2b0301h01,S2b0301h20,S2c0302h03,S3e1004h19,S3e1004h21,S3j1218h20</v>
+        <v>S2b0301h02,S2d0303h05,S2d0303h23,S3f1013h06,S3f1013h19,S3h1128h01,S2c0302h06,S2c0302h24,S3e1004h06,S3e1004h23,S3h1128h20,S3h1128h24,S2b0301h03,S2d0303h06,S3e1004h22,S3f1013h22,S3i1216h19,S2b0301h05,S2b0301h19,S2b0301h24,S2d0303h22,S3aH8,S3e1004h05,S3f1013h04,S3g1014h02,S3g1014h04,S3g1014h05,S3h1128h19,S3i1216h22,S3j1218h06,S3j1218h21,S2b0301h04,S2d0303h03,S3g1014h21,S2aH1,S3aH7,S3e1004h03,S3f1013h23,S3h1128h03,S3i1216h02,S1aH7,S2c0302h04,S2d0303h01,S3g1014h03,S3g1014h22,S3h1128h02,S3i1216h23,S3j1218h04,S2c0302h22,S2d0303h04,S2d0303h19,S3e1004h01,S3f1013h03,S3h1128h22,S3i1216h20,S3i1216h24,S3j1218h23,S2c0302h20,S3f1013h05,S3g1014h01,S3g1014h06,S3h1128h06,S3h1128h23,S3j1218h19,S3j1218h24,S1aH1,S2aH7,S3e1004h04,S3f1013h01,S3i1216h03,S3j1218h03,S2c0302h05,S2c0302h21,S2d0303h24,S3aH1,S3e1004h20,S3f1013h21,S3h1128h04,S3h1128h05,S3i1216h05,S3i1216h21,S3j1218h02,S3j1218h22,S2b0301h21,S2c0302h01,S2d0303h02,S2d0303h20,S3e1004h24,S3f1013h20,S3i1216h04,S2b0301h01,S2b0301h20,S2c0302h03,S3e1004h19,S3e1004h21,S3j1218h20,S1aH8,S2c0302h19,S2c0302h23,S3f1013h24,S3g1014h23,S3g1014h24,S3j1218h05,S2aH8,S3g1014h19,S3i1216h06,S3j1218h01,S2b0301h06,S2b0301h22,S2b0301h23,S2c0302h02,S2d0303h21,S3e1004h02,S3f1013h02,S3g1014h20,S3h1128h21,S3i1216h01</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S2b0301h17,S2c0302h16,S2d0303h14,S2d0303h16,S3f1013h09,S3h1128h13,S3i1216h09,S3i1216h12,S1aH2,S2aH3,S2b0301h14,S2b0301h16,S2d0303h11,S3aH6,S3e1004h14,S3f1013h13,S3i1216h14,S2b0301h12,S2d0303h08,S3e1004h07,S3e1004h10,S3e1004h13,S3g1014h12,S3g1014h18,S3h1128h16,S3i1216h10,S3j1218h08,S3j1218h18,S2c0302h18,S2d0303h17,S3aH2,S3f1013h07,S3f1013h17,S3g1014h13,S3g1014h14,S3g1014h15,S3i1216h11,S1aH4,S2aH2,S3e1004h09,S2c0302h08,S2c0302h09,S3aH4,S3e1004h15,S3e1004h16,S2b0301h10,S2b0301h15,S2d0303h07,S2d0303h15,S3e1004h08,S3f1013h16,S3g1014h08,S3g1014h16,S3h1128h07,S3h1128h10,S3h1128h11,S3j1218h16,S1aH5,S2aH4,S2aH5,S2b0301h07,S2c0302h15,S3f1013h14,S3h1128h15,S3i1216h07,S3i1216h13,S3j1218h10,S3j1218h17,S2c0302h07,S2c0302h11,S2d0303h13,S2d0303h18,S3e1004h17,S3f1013h11,S3g1014h07,S3g1014h11,S3h1128h12,S3i1216h16,S3j1218h14,S2b0301h08,S2b0301h11,S2b0301h13,S3aH3,S3f1013h08,S3j1218h11,S2d0303h10,S2d0303h12,S3e1004h12,S3j1218h12,S3j1218h13,S2c0302h10,S2c0302h12,S2c0302h17,S3e1004h18,S3f1013h15,S3h1128h14,S3i1216h15,S3i1216h17,S3i1216h18,S1aH6,S2c0302h13,S3f1013h10,S3f1013h18,S3g1014h09,S3j1218h09,S3j1218h15,S1aH3,S2c0302h14,S2d0303h09,S3h1128h09,S3i1216h08,S2aH6,S2b0301h09,S3aH5,S3f1013h12,S3g1014h17,S3h1128h17,S3j1218h07,S2b0301h18,S3e1004h11,S3g1014h10,S3h1128h08,S3h1128h18</v>
+        <v>S2c0302h08,S2c0302h09,S3aH4,S3e1004h15,S3e1004h16,S2b0301h17,S2c0302h16,S2d0303h14,S2d0303h16,S3f1013h09,S3h1128h13,S3i1216h09,S3i1216h12,S1aH4,S2aH2,S3e1004h09,S2c0302h18,S2d0303h17,S3aH2,S3f1013h07,S3f1013h17,S3g1014h13,S3g1014h14,S3g1014h15,S3i1216h11,S1aH6,S2c0302h13,S3f1013h10,S3f1013h18,S3g1014h09,S3j1218h09,S3j1218h15,S2c0302h10,S2c0302h12,S2c0302h17,S3e1004h18,S3f1013h15,S3h1128h14,S3i1216h15,S3i1216h17,S3i1216h18,S1aH3,S2c0302h14,S2d0303h09,S3h1128h09,S3i1216h08,S2b0301h08,S2b0301h11,S2b0301h13,S3aH3,S3f1013h08,S3j1218h11,S1aH5,S2aH4,S2aH5,S2b0301h07,S2c0302h15,S3f1013h14,S3h1128h15,S3i1216h07,S3i1216h13,S3j1218h10,S3j1218h17,S2c0302h07,S2c0302h11,S2d0303h13,S2d0303h18,S3e1004h17,S3f1013h11,S3g1014h07,S3g1014h11,S3h1128h12,S3i1216h16,S3j1218h14,S2d0303h10,S2d0303h12,S3e1004h12,S3j1218h12,S3j1218h13,S1aH2,S2aH3,S2b0301h14,S2b0301h16,S2d0303h11,S3aH6,S3e1004h14,S3f1013h13,S3i1216h14,S2b0301h18,S3e1004h11,S3g1014h10,S3h1128h08,S3h1128h18,S2aH6,S2b0301h09,S3aH5,S3f1013h12,S3g1014h17,S3h1128h17,S3j1218h07,S2b0301h10,S2b0301h15,S2d0303h07,S2d0303h15,S3e1004h08,S3f1013h16,S3g1014h08,S3g1014h16,S3h1128h07,S3h1128h10,S3h1128h11,S3j1218h16,S2b0301h12,S2d0303h08,S3e1004h07,S3e1004h10,S3e1004h13,S3g1014h12,S3g1014h18,S3h1128h16,S3i1216h10,S3j1218h08,S3j1218h18</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -2238,7 +2238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F01C579-D9FA-4A64-A83B-6ACE7A4A3B15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4620DA-6980-46BB-AF55-6D16F9A0A9FF}">
   <dimension ref="A9:AM490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2461,10 +2461,10 @@
         <v>0.19756037558773065</v>
       </c>
       <c r="AK11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AL11">
-        <v>0.84660555896610845</v>
+        <v>0.11644615677723913</v>
       </c>
       <c r="AM11" t="s">
         <v>521</v>
@@ -2645,10 +2645,10 @@
         <v>4.9864854453449015E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AL13">
-        <v>0.11644615677723913</v>
+        <v>0.84660555896610834</v>
       </c>
       <c r="AM13" t="s">
         <v>521</v>
